--- a/medicine/Sexualité et sexologie/Zoosadisme/Zoosadisme.xlsx
+++ b/medicine/Sexualité et sexologie/Zoosadisme/Zoosadisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le zoosadisme est un terme intronisé par Ernest Borneman référant le plaisir (parfois le plaisir sexuel) dérivé de la cruauté envers les animaux. Le zoosadisme fait partie de la Triade MacDonald, un groupe dont les trois comportements sont des comportements sociopathes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le zoosadisme est un terme intronisé par Ernest Borneman référant le plaisir (parfois le plaisir sexuel) dérivé de la cruauté envers les animaux. Le zoosadisme fait partie de la Triade MacDonald, un groupe dont les trois comportements sont des comportements sociopathes.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Zoosadiques notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dennis Rader
 Kenny Glenn
-Rostislav Bogoslevsky[2]
-John Duffy and David Mulcahy[3]
-Richard Chase[4]
+Rostislav Bogoslevsky
+John Duffy and David Mulcahy
+Richard Chase
 Albert DeSalvo
 Luka Rocco Magnotta</t>
         </is>
@@ -547,7 +561,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cruauté envers les animaux
 Consommation d'animaux vivants
